--- a/graph/200219_190611.xlsx
+++ b/graph/200219_190611.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A87F03-6204-43A9-B67C-9ADEE349B613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907EB6D-1FFF-4244-A6B9-12FA58FA2CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K. Long et al.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANN_CORR
-(proposed)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time variation 4 with few labeled data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +68,14 @@
   </si>
   <si>
     <t>Target domain (2019-06-11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,48 +155,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>工作表1!$D$5</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Time variation 4 with few labeled data</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -295,9 +253,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -311,14 +269,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,10 +283,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$7:$E$11,工作表1!$E$13:$E$14)</c:f>
+              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
@@ -349,9 +300,6 @@
                   <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -454,9 +402,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -470,14 +418,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -491,10 +432,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$7:$F$11,工作表1!$F$13:$F$14)</c:f>
+              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.76</c:v>
                 </c:pt>
@@ -509,9 +450,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,48 +499,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-084D-4EC3-94AA-99652047AF9F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.0640883856513906E-3"/>
-                  <c:y val="-1.616879469818539E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-084D-4EC3-94AA-99652047AF9F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -669,9 +566,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -685,14 +582,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -706,17 +596,54 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$G$7:$G$11,工作表1!$G$13:$G$14)</c:f>
+              <c:f>(工作表1!$G$7:$G$10,工作表1!$G$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="6">
-                  <c:v>32.14</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>工作表1!$G$13</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                  <c15:dLbl>
+                    <c:idx val="3"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-7.0640883856513906E-3"/>
+                        <c:y val="-1.616879469818539E-17"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{00000001-E61D-4B15-AAE6-1C199B0B75ED}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c15:dLbl>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-084D-4EC3-94AA-99652047AF9F}"/>
             </c:ext>
@@ -744,28 +671,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.2980662892385426E-3"/>
-                  <c:y val="-1.616879469818539E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8F71-48E4-B09F-0A933C55B37F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -832,9 +737,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -848,14 +753,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -869,17 +767,43 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$H$7:$H$11,工作表1!$H$13:$H$14)</c:f>
+              <c:f>(工作表1!$H$7:$H$10,工作表1!$H$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="6">
-                  <c:v>32.86</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>工作表1!$H$13</c15:sqref>
+                  <c15:dLbl>
+                    <c:idx val="3"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="5.2980662892385426E-3"/>
+                        <c:y val="-1.616879469818539E-17"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{00000002-E61D-4B15-AAE6-1C199B0B75ED}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c15:dLbl>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-084D-4EC3-94AA-99652047AF9F}"/>
             </c:ext>
@@ -905,47 +829,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Models</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -994,7 +877,6 @@
         <c:axId val="130701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1069,7 +951,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="[=9]&quot;36&quot;;[=8]&quot;32&quot;;0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,48 +1149,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>工作表1!$D$22</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Time variation 4 with unlabeled data</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1340,28 +1181,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.0569904769525356E-3"/>
-                  <c:y val="-1.616879469818539E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D525-44D3-A12A-F4E6F9E9FA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1428,9 +1247,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$28,工作表1!$D$30:$D$31)</c:f>
+              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$31)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -1444,14 +1263,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1465,10 +1277,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$24:$E$28,工作表1!$E$30:$E$31)</c:f>
+              <c:f>(工作表1!$E$24:$E$27,工作表1!$E$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
@@ -1483,17 +1295,40 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>工作表1!$E$30</c15:sqref>
+                  <c15:dLbl>
+                    <c:idx val="3"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-7.0569904769525356E-3"/>
+                        <c:y val="-1.616879469818539E-17"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{00000000-844F-499E-88A1-D0637B2E2D1D}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c15:dLbl>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C39C-459C-B208-3C47121C0D01}"/>
             </c:ext>
@@ -1590,9 +1425,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$28,工作表1!$D$30:$D$31)</c:f>
+              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$31)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -1606,14 +1441,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1627,10 +1455,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$24:$F$28,工作表1!$F$30:$F$31)</c:f>
+              <c:f>(工作表1!$F$24:$F$27,工作表1!$F$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.77</c:v>
                 </c:pt>
@@ -1645,12 +1473,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.6900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,47 +1504,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Models</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1954,6 +1735,1248 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source domain (2020-02-19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$7:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$R$7:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48E2-4046-B030-77E0C55BD009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target domain (2019-06-11)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$7:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$S$7:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48E2-4046-B030-77E0C55BD009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2057804335"/>
+        <c:axId val="2057867423"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$7:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$T$7:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>32.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48E2-4046-B030-77E0C55BD009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$7:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$U$7:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>32.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48E2-4046-B030-77E0C55BD009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2088698575"/>
+        <c:axId val="2054706623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2057804335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057867423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057867423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057804335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2054706623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="36"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088698575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2088698575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2054706623"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source domain (2020-02-19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$24:$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$R$24:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97DF-4A1B-B9A5-58417C9F92F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$S$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target domain (2019-06-11)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$Q$24:$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$S$24:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97DF-4A1B-B9A5-58417C9F92F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2054712159"/>
+        <c:axId val="2105714703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2054712159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105714703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105714703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054712159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2034,6 +3057,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2538,6 +3641,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3050,10 +5159,10 @@
       <xdr:rowOff>108503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>474282</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108053</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>143082</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3086,10 +5195,10 @@
       <xdr:rowOff>187202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>496467</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>186752</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165267</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3109,6 +5218,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E897CD92-37EC-4F1D-81D6-1FAC539E3395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>111037</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DC4CBE-80BE-4F2B-B36F-16DCDA3542E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3152,6 +5333,255 @@
         </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00588</cdr:x>
+      <cdr:y>0.0926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08231</cdr:x>
+      <cdr:y>0.17198</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C1AE5E-3B18-4566-B147-7AFFF6F8EBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="19050" y="233363"/>
+          <a:ext cx="247650" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00686</cdr:x>
+      <cdr:y>0.0126</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08329</cdr:x>
+      <cdr:y>0.09197</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文字方塊 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AC92AD-89A7-4782-8901-FFF6D80BF9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="22225" y="31750"/>
+          <a:ext cx="247650" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44685</cdr:x>
+      <cdr:y>0.1493</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61148</cdr:x>
+      <cdr:y>0.20978</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="雙波浪 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3D806E-3062-4923-A0F3-5346E3F248C2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1447800" y="376238"/>
+          <a:ext cx="533400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="doubleWave">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
@@ -3445,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:H31"/>
+  <dimension ref="D5:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3458,23 +5888,35 @@
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -3484,8 +5926,17 @@
       <c r="F7">
         <v>1.76</v>
       </c>
+      <c r="Q7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.22</v>
+      </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -3495,8 +5946,17 @@
       <c r="F8">
         <v>1.94</v>
       </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>32.14</v>
+      </c>
+      <c r="U8">
+        <v>32.86</v>
+      </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +5966,17 @@
       <c r="F9">
         <v>5.64</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.08</v>
+      </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -3518,20 +5987,20 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>8</v>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
       <c r="E11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>7.0000000000000007E-2</v>
@@ -3540,45 +6009,54 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>32.14</v>
+      </c>
+      <c r="H13">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13">
-        <v>1.22</v>
+      <c r="F14">
+        <v>1.08</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>32.14</v>
-      </c>
-      <c r="H14">
-        <v>32.86</v>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>0</v>
       </c>
@@ -3588,8 +6066,17 @@
       <c r="F24">
         <v>11.77</v>
       </c>
+      <c r="Q24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S24">
+        <v>17.18</v>
+      </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>2</v>
       </c>
@@ -3599,8 +6086,17 @@
       <c r="F25">
         <v>12.3</v>
       </c>
+      <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>26.93</v>
+      </c>
+      <c r="S25">
+        <v>26.93</v>
+      </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +6106,17 @@
       <c r="F26">
         <v>14.13</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S26">
+        <v>4.6900000000000004</v>
+      </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -3622,48 +6127,48 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>8</v>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>5</v>
       </c>
       <c r="E28">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28">
-        <v>4.6900000000000004</v>
+        <v>20.73</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F29">
-        <v>20.73</v>
+        <v>17.18</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30">
+        <v>26.93</v>
+      </c>
+      <c r="F30">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F30">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>26.93</v>
-      </c>
       <c r="F31">
-        <v>26.93</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/graph/200219_190611.xlsx
+++ b/graph/200219_190611.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907EB6D-1FFF-4244-A6B9-12FA58FA2CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59B484-A2D9-4A32-806E-CCBAD633C198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -269,6 +269,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -283,10 +289,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$14)</c:f>
+              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$12:$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
@@ -300,6 +306,9 @@
                   <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -402,9 +411,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -418,6 +427,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -432,10 +447,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$14)</c:f>
+              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$12:$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.76</c:v>
                 </c:pt>
@@ -449,6 +464,9 @@
                   <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -491,7 +509,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -499,7 +517,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-735E-4E22-A23D-FDE0EDA43BAE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0640883856513906E-3"/>
+                  <c:y val="-1.616879469818539E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-735E-4E22-A23D-FDE0EDA43BAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -566,9 +625,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -582,6 +641,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -596,54 +661,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$G$7:$G$10,工作表1!$G$14)</c:f>
+              <c:f>(工作表1!$G$7:$G$10,工作表1!$G$12:$G$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>32.14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>工作表1!$G$13</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c15:spPr>
-                  <c15:invertIfNegative val="0"/>
-                  <c15:bubble3D val="0"/>
-                  <c15:dLbl>
-                    <c:idx val="3"/>
-                    <c:layout>
-                      <c:manualLayout>
-                        <c:x val="-7.0640883856513906E-3"/>
-                        <c:y val="-1.616879469818539E-17"/>
-                      </c:manualLayout>
-                    </c:layout>
-                    <c:dLblPos val="outEnd"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000001-E61D-4B15-AAE6-1C199B0B75ED}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-084D-4EC3-94AA-99652047AF9F}"/>
             </c:ext>
@@ -671,6 +699,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2980662892385426E-3"/>
+                  <c:y val="-1.616879469818539E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-735E-4E22-A23D-FDE0EDA43BAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -737,9 +787,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -753,6 +803,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -767,43 +823,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$H$7:$H$10,工作表1!$H$14)</c:f>
+              <c:f>(工作表1!$H$7:$H$10,工作表1!$H$12:$H$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>32.86</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>工作表1!$H$13</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="3"/>
-                    <c:layout>
-                      <c:manualLayout>
-                        <c:x val="5.2980662892385426E-3"/>
-                        <c:y val="-1.616879469818539E-17"/>
-                      </c:manualLayout>
-                    </c:layout>
-                    <c:dLblPos val="outEnd"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000002-E61D-4B15-AAE6-1C199B0B75ED}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-084D-4EC3-94AA-99652047AF9F}"/>
             </c:ext>
@@ -877,6 +907,7 @@
         <c:axId val="130701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -951,7 +982,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="[=8]&quot;32&quot;;[=9]&quot;36&quot;;0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1181,6 +1212,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6464444444444531E-2"/>
+                  <c:y val="5.7745695350662111E-18"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9CF3-4E8E-85D4-DDB38E3B4F66}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1247,9 +1300,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$31)</c:f>
+              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$29:$D$31)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -1263,6 +1316,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -1277,10 +1336,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$24:$E$27,工作表1!$E$31)</c:f>
+              <c:f>(工作表1!$E$24:$E$27,工作表1!$E$29:$E$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
@@ -1294,41 +1353,18 @@
                   <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>工作表1!$E$30</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="3"/>
-                    <c:layout>
-                      <c:manualLayout>
-                        <c:x val="-7.0569904769525356E-3"/>
-                        <c:y val="-1.616879469818539E-17"/>
-                      </c:manualLayout>
-                    </c:layout>
-                    <c:dLblPos val="outEnd"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000000-844F-499E-88A1-D0637B2E2D1D}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C39C-459C-B208-3C47121C0D01}"/>
             </c:ext>
@@ -1359,6 +1395,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0555555555555554E-3"/>
+                  <c:y val="5.7745695350662111E-18"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9CF3-4E8E-85D4-DDB38E3B4F66}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1425,9 +1483,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$31)</c:f>
+              <c:f>(工作表1!$D$24:$D$27,工作表1!$D$29:$D$31)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -1441,6 +1499,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -1455,10 +1519,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$24:$F$27,工作表1!$F$31)</c:f>
+              <c:f>(工作表1!$F$24:$F$27,工作表1!$F$29:$F$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.77</c:v>
                 </c:pt>
@@ -1472,6 +1536,12 @@
                   <c:v>8.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.6900000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -2423,6 +2493,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2054706623"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5159,8 +5230,8 @@
       <xdr:rowOff>108503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>143082</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3882</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28178</xdr:rowOff>
     </xdr:to>
@@ -5195,8 +5266,8 @@
       <xdr:rowOff>187202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165267</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26067</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106877</xdr:rowOff>
     </xdr:to>
@@ -5333,6 +5404,68 @@
         </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75234</cdr:x>
+      <cdr:y>0.15349</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82466</cdr:x>
+      <cdr:y>0.19885</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="雙波浪 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73582FC-A326-4B67-A112-FADFDE8D8F49}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4062618" y="386797"/>
+          <a:ext cx="390525" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="doubleWave">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
@@ -5877,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/graph/200219_190611.xlsx
+++ b/graph/200219_190611.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59B484-A2D9-4A32-806E-CCBAD633C198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77CB1CE-9732-4AFE-8362-E87054AC5691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -195,18 +200,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -335,9 +335,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -353,18 +358,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -508,9 +508,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -522,9 +527,14 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:pattFill prst="wdDnDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -567,18 +577,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -689,9 +694,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,18 +739,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -881,12 +886,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -933,12 +935,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -946,10 +945,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -966,12 +965,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -998,12 +994,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1043,12 +1036,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1112,12 +1102,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1152,7 +1139,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -1202,9 +1193,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,18 +1238,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1385,9 +1376,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,18 +1421,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1596,12 +1587,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1646,12 +1634,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1659,7 +1644,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
               </a:p>
@@ -1678,12 +1663,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1710,12 +1692,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1752,12 +1731,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1792,7 +1768,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -6011,7 +5991,7 @@
   <dimension ref="D5:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/graph/200219_190611.xlsx
+++ b/graph/200219_190611.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77CB1CE-9732-4AFE-8362-E87054AC5691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505884D5-8928-4CD2-B539-0B63032360E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,14 +177,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -200,7 +195,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -216,7 +213,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -358,7 +354,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -374,7 +372,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -479,7 +476,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -508,14 +504,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -527,14 +518,9 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:pattFill prst="wdDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -551,18 +537,17 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.0640883856513906E-3"/>
-                  <c:y val="-1.616879469818539E-17"/>
+                  <c:x val="-1.4111111111111197E-2"/>
+                  <c:y val="-5.7745695350662111E-18"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-735E-4E22-A23D-FDE0EDA43BAE}"/>
@@ -577,7 +562,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -593,7 +580,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -713,21 +699,20 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.2980662892385426E-3"/>
-                  <c:y val="-1.616879469818539E-17"/>
+                  <c:x val="7.0555555555555554E-3"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-735E-4E22-A23D-FDE0EDA43BAE}"/>
+                  <c16:uniqueId val="{00000002-336D-4E73-9873-65D286D4110A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -739,7 +724,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -755,7 +742,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -846,7 +832,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1193,14 +1179,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1193,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6464444444444531E-2"/>
+                  <c:x val="-1.8814814814814902E-2"/>
                   <c:y val="5.7745695350662111E-18"/>
                 </c:manualLayout>
               </c:layout>
@@ -1223,10 +1204,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-9CF3-4E8E-85D4-DDB38E3B4F66}"/>
+                  <c16:uniqueId val="{00000000-857F-4B5B-AACD-4A2AE8507423}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1238,7 +1219,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1409,7 +1392,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9CF3-4E8E-85D4-DDB38E3B4F66}"/>
+                  <c16:uniqueId val="{00000001-857F-4B5B-AACD-4A2AE8507423}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1421,7 +1404,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>

--- a/graph/200219_190611.xlsx
+++ b/graph/200219_190611.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505884D5-8928-4CD2-B539-0B63032360E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A29EF9-E6E5-4A6F-A67A-24E49224717B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,9 @@
   <si>
     <t>HistLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FusionDANN</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -427,7 +430,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -635,7 +638,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -797,7 +800,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -1293,7 +1296,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -1478,7 +1481,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -5976,7 +5979,7 @@
   <dimension ref="D5:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6109,7 +6112,7 @@
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>32.14</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>26.93</v>
